--- a/public/question.xlsx
+++ b/public/question.xlsx
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +80,120 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,121 +205,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,13 +236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +284,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,9 +432,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,26 +465,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,34 +498,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,154 +532,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1003,118 +1010,120 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="42.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="42.5555555555556" style="2" customWidth="1"/>
+    <col min="2" max="7" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="B1AE" sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
